--- a/biology/Botanique/Thonningia_sanguinea/Thonningia_sanguinea.xlsx
+++ b/biology/Botanique/Thonningia_sanguinea/Thonningia_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thonningia sanguinea, aussi appelée palmier de la biche blanche, est une espèce de plantes à fleurs de la famille des Balanophoraceae et du genre Thonningia. Elle est originaire d'Afrique où elle est également appelée badéngbwé en yaoundé, au Cameroun.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thonningia sanguinea a été découverte par Martin Vahl, un botaniste dano-norvégien, et a été recensée en 1810. Cette espèce s'étend sur le territoire africain. On la retrouve en Sierra Leone au Cameroun, du Gabon au Congo, mais aussi au Soudan Oriental, au Kenya, en Ouganda, en Angola et en Côte d'Ivoire. Elle est très présente en région tropicale et boisée, à une altitude de 1 700 m.
 Cette espèce est un holoparasite que l'on retrouve sur les arbres. La plante parasite les plants de palmiers, d'hévéa et de cacaoyer. Elle  est incapable de produire de la chlorophylle, et totalement dépendante de son hôte. Elle mesure généralement un peu moins de 20 cm de hauteur. Seule l'inflorescence est perçue hors de terre, à environ 7 cm de hauteur et est de couleur rose.
@@ -544,7 +558,9 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l'infestation de Thonningia sanguinea ne soit généralement pas fatale, elle peut causer une certaine perte de vigueur chez son hôte. Une infestation massive et fatale a cependant été enregistrée dans la Province méridionale de Sierra Leone, causant ainsi la mort d'hévéas. 
 </t>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alimentation
 la racine aromatique est utilisée comme épice pour agrémenter les soupes.
